--- a/1. Cleaning and merging/1. Raw data/EUV/Tablas_EUV2011-2021_municipios.xlsx
+++ b/1. Cleaning and merging/1. Raw data/EUV/Tablas_EUV2011-2021_municipios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Estadistica\Z_ETXEBIZITZA\PETICIONES\2024\Pendientes\20240411_Pare_Ogg_TFG_EUV2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cab2dc411f33be78/UPF/6. Sisè/TFG Economia/Habitatge/GitHub/TFG-Eco/1. Cleaning and merging/1. Raw data/EUV/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116F5A34-6DE1-47B3-98A0-0A6762BB50CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9C11174A-68DC-43B0-9A8F-D8BAAAEBBB18}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11576" xr2:uid="{9C11174A-68DC-43B0-9A8F-D8BAAAEBBB18}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla CAE_2011_2021" sheetId="1" r:id="rId1"/>
@@ -1256,16 +1256,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1277,13 +1274,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1644,981 +1644,981 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C9960B-068C-4A2E-BAF7-0D96D9AB4DA2}">
   <dimension ref="A1:AE53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.95" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="6" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="2"/>
-    <col min="8" max="8" width="10.5703125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.3984375" style="2"/>
+    <col min="8" max="8" width="10.59765625" style="2" customWidth="1"/>
     <col min="9" max="9" width="10" style="2" customWidth="1"/>
     <col min="10" max="11" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="11.42578125" style="1"/>
-    <col min="22" max="22" width="11.85546875" style="2" customWidth="1"/>
-    <col min="23" max="23" width="9.7109375" style="2" customWidth="1"/>
-    <col min="24" max="24" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="163" width="11.42578125" style="1"/>
-    <col min="164" max="164" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="0.85546875" style="1" customWidth="1"/>
-    <col min="166" max="166" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="168" max="170" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="0.85546875" style="1" customWidth="1"/>
-    <col min="172" max="172" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="175" max="176" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="0.85546875" style="1" customWidth="1"/>
-    <col min="178" max="178" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="180" max="182" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="183" max="419" width="11.42578125" style="1"/>
-    <col min="420" max="420" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="421" max="421" width="0.85546875" style="1" customWidth="1"/>
-    <col min="422" max="422" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="423" max="423" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="424" max="426" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="427" max="427" width="0.85546875" style="1" customWidth="1"/>
-    <col min="428" max="428" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="429" max="429" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="430" max="430" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="431" max="432" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="433" max="433" width="0.85546875" style="1" customWidth="1"/>
-    <col min="434" max="434" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="435" max="435" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="436" max="438" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="439" max="675" width="11.42578125" style="1"/>
-    <col min="676" max="676" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="677" max="677" width="0.85546875" style="1" customWidth="1"/>
-    <col min="678" max="678" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="679" max="679" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="680" max="682" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="683" max="683" width="0.85546875" style="1" customWidth="1"/>
-    <col min="684" max="684" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="685" max="685" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="686" max="686" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="687" max="688" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="689" max="689" width="0.85546875" style="1" customWidth="1"/>
-    <col min="690" max="690" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="691" max="691" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="692" max="694" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="695" max="931" width="11.42578125" style="1"/>
-    <col min="932" max="932" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="933" max="933" width="0.85546875" style="1" customWidth="1"/>
-    <col min="934" max="934" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="935" max="935" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="936" max="938" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="939" max="939" width="0.85546875" style="1" customWidth="1"/>
-    <col min="940" max="940" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="941" max="941" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="942" max="942" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="943" max="944" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="945" max="945" width="0.85546875" style="1" customWidth="1"/>
-    <col min="946" max="946" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="947" max="947" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="948" max="950" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="951" max="1187" width="11.42578125" style="1"/>
-    <col min="1188" max="1188" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1189" max="1189" width="0.85546875" style="1" customWidth="1"/>
-    <col min="1190" max="1190" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1191" max="1191" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1192" max="1194" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1195" max="1195" width="0.85546875" style="1" customWidth="1"/>
-    <col min="1196" max="1196" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1197" max="1197" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1198" max="1198" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1199" max="1200" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1201" max="1201" width="0.85546875" style="1" customWidth="1"/>
-    <col min="1202" max="1202" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1203" max="1203" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1204" max="1206" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1207" max="1443" width="11.42578125" style="1"/>
-    <col min="1444" max="1444" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1445" max="1445" width="0.85546875" style="1" customWidth="1"/>
-    <col min="1446" max="1446" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1447" max="1447" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1448" max="1450" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1451" max="1451" width="0.85546875" style="1" customWidth="1"/>
-    <col min="1452" max="1452" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1453" max="1453" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1454" max="1454" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1455" max="1456" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1457" max="1457" width="0.85546875" style="1" customWidth="1"/>
-    <col min="1458" max="1458" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1459" max="1459" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1460" max="1462" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1463" max="1699" width="11.42578125" style="1"/>
-    <col min="1700" max="1700" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1701" max="1701" width="0.85546875" style="1" customWidth="1"/>
-    <col min="1702" max="1702" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1703" max="1703" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1704" max="1706" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1707" max="1707" width="0.85546875" style="1" customWidth="1"/>
-    <col min="1708" max="1708" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1709" max="1709" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1710" max="1710" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1711" max="1712" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1713" max="1713" width="0.85546875" style="1" customWidth="1"/>
-    <col min="1714" max="1714" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1715" max="1715" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1716" max="1718" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1719" max="1955" width="11.42578125" style="1"/>
-    <col min="1956" max="1956" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1957" max="1957" width="0.85546875" style="1" customWidth="1"/>
-    <col min="1958" max="1958" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1959" max="1959" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1960" max="1962" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1963" max="1963" width="0.85546875" style="1" customWidth="1"/>
-    <col min="1964" max="1964" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1965" max="1965" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1966" max="1966" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1967" max="1968" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1969" max="1969" width="0.85546875" style="1" customWidth="1"/>
-    <col min="1970" max="1970" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1971" max="1971" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1972" max="1974" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1975" max="2211" width="11.42578125" style="1"/>
-    <col min="2212" max="2212" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2213" max="2213" width="0.85546875" style="1" customWidth="1"/>
-    <col min="2214" max="2214" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2215" max="2215" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2216" max="2218" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2219" max="2219" width="0.85546875" style="1" customWidth="1"/>
-    <col min="2220" max="2220" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2221" max="2221" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2222" max="2222" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2223" max="2224" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2225" max="2225" width="0.85546875" style="1" customWidth="1"/>
-    <col min="2226" max="2226" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2227" max="2227" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2228" max="2230" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2231" max="2467" width="11.42578125" style="1"/>
-    <col min="2468" max="2468" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2469" max="2469" width="0.85546875" style="1" customWidth="1"/>
-    <col min="2470" max="2470" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2471" max="2471" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2472" max="2474" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2475" max="2475" width="0.85546875" style="1" customWidth="1"/>
-    <col min="2476" max="2476" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2477" max="2477" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2478" max="2478" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2479" max="2480" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2481" max="2481" width="0.85546875" style="1" customWidth="1"/>
-    <col min="2482" max="2482" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2483" max="2483" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2484" max="2486" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2487" max="2723" width="11.42578125" style="1"/>
-    <col min="2724" max="2724" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2725" max="2725" width="0.85546875" style="1" customWidth="1"/>
-    <col min="2726" max="2726" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2727" max="2727" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2728" max="2730" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2731" max="2731" width="0.85546875" style="1" customWidth="1"/>
-    <col min="2732" max="2732" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2733" max="2733" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2734" max="2734" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2735" max="2736" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2737" max="2737" width="0.85546875" style="1" customWidth="1"/>
-    <col min="2738" max="2738" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2739" max="2739" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2740" max="2742" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2743" max="2979" width="11.42578125" style="1"/>
-    <col min="2980" max="2980" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2981" max="2981" width="0.85546875" style="1" customWidth="1"/>
-    <col min="2982" max="2982" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2983" max="2983" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2984" max="2986" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2987" max="2987" width="0.85546875" style="1" customWidth="1"/>
-    <col min="2988" max="2988" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2989" max="2989" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2990" max="2990" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2991" max="2992" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2993" max="2993" width="0.85546875" style="1" customWidth="1"/>
-    <col min="2994" max="2994" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2995" max="2995" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2996" max="2998" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2999" max="3235" width="11.42578125" style="1"/>
-    <col min="3236" max="3236" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3237" max="3237" width="0.85546875" style="1" customWidth="1"/>
-    <col min="3238" max="3238" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3239" max="3239" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3240" max="3242" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3243" max="3243" width="0.85546875" style="1" customWidth="1"/>
-    <col min="3244" max="3244" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3245" max="3245" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3246" max="3246" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3247" max="3248" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3249" max="3249" width="0.85546875" style="1" customWidth="1"/>
-    <col min="3250" max="3250" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3251" max="3251" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3252" max="3254" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3255" max="3491" width="11.42578125" style="1"/>
-    <col min="3492" max="3492" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3493" max="3493" width="0.85546875" style="1" customWidth="1"/>
-    <col min="3494" max="3494" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3495" max="3495" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3496" max="3498" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3499" max="3499" width="0.85546875" style="1" customWidth="1"/>
-    <col min="3500" max="3500" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3501" max="3501" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3502" max="3502" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3503" max="3504" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3505" max="3505" width="0.85546875" style="1" customWidth="1"/>
-    <col min="3506" max="3506" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3507" max="3507" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3508" max="3510" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3511" max="3747" width="11.42578125" style="1"/>
-    <col min="3748" max="3748" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3749" max="3749" width="0.85546875" style="1" customWidth="1"/>
-    <col min="3750" max="3750" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3751" max="3751" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3752" max="3754" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3755" max="3755" width="0.85546875" style="1" customWidth="1"/>
-    <col min="3756" max="3756" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3757" max="3757" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3758" max="3758" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3759" max="3760" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3761" max="3761" width="0.85546875" style="1" customWidth="1"/>
-    <col min="3762" max="3762" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3763" max="3763" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3764" max="3766" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3767" max="4003" width="11.42578125" style="1"/>
-    <col min="4004" max="4004" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4005" max="4005" width="0.85546875" style="1" customWidth="1"/>
-    <col min="4006" max="4006" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4007" max="4007" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4008" max="4010" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4011" max="4011" width="0.85546875" style="1" customWidth="1"/>
-    <col min="4012" max="4012" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4013" max="4013" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4014" max="4014" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4015" max="4016" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4017" max="4017" width="0.85546875" style="1" customWidth="1"/>
-    <col min="4018" max="4018" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4019" max="4019" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4020" max="4022" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4023" max="4259" width="11.42578125" style="1"/>
-    <col min="4260" max="4260" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4261" max="4261" width="0.85546875" style="1" customWidth="1"/>
-    <col min="4262" max="4262" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4263" max="4263" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4264" max="4266" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4267" max="4267" width="0.85546875" style="1" customWidth="1"/>
-    <col min="4268" max="4268" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4269" max="4269" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4270" max="4270" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4271" max="4272" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4273" max="4273" width="0.85546875" style="1" customWidth="1"/>
-    <col min="4274" max="4274" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4275" max="4275" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4276" max="4278" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4279" max="4515" width="11.42578125" style="1"/>
-    <col min="4516" max="4516" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4517" max="4517" width="0.85546875" style="1" customWidth="1"/>
-    <col min="4518" max="4518" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4519" max="4519" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4520" max="4522" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4523" max="4523" width="0.85546875" style="1" customWidth="1"/>
-    <col min="4524" max="4524" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4525" max="4525" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4526" max="4526" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4527" max="4528" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4529" max="4529" width="0.85546875" style="1" customWidth="1"/>
-    <col min="4530" max="4530" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4531" max="4531" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4532" max="4534" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4535" max="4771" width="11.42578125" style="1"/>
-    <col min="4772" max="4772" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4773" max="4773" width="0.85546875" style="1" customWidth="1"/>
-    <col min="4774" max="4774" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4775" max="4775" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4776" max="4778" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4779" max="4779" width="0.85546875" style="1" customWidth="1"/>
-    <col min="4780" max="4780" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4781" max="4781" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4782" max="4782" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4783" max="4784" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4785" max="4785" width="0.85546875" style="1" customWidth="1"/>
-    <col min="4786" max="4786" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4787" max="4787" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4788" max="4790" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4791" max="5027" width="11.42578125" style="1"/>
-    <col min="5028" max="5028" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5029" max="5029" width="0.85546875" style="1" customWidth="1"/>
-    <col min="5030" max="5030" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5031" max="5031" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5032" max="5034" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5035" max="5035" width="0.85546875" style="1" customWidth="1"/>
-    <col min="5036" max="5036" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5037" max="5037" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5038" max="5038" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5039" max="5040" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5041" max="5041" width="0.85546875" style="1" customWidth="1"/>
-    <col min="5042" max="5042" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5043" max="5043" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5044" max="5046" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5047" max="5283" width="11.42578125" style="1"/>
-    <col min="5284" max="5284" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5285" max="5285" width="0.85546875" style="1" customWidth="1"/>
-    <col min="5286" max="5286" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5287" max="5287" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5288" max="5290" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5291" max="5291" width="0.85546875" style="1" customWidth="1"/>
-    <col min="5292" max="5292" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5293" max="5293" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5294" max="5294" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5295" max="5296" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5297" max="5297" width="0.85546875" style="1" customWidth="1"/>
-    <col min="5298" max="5298" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5299" max="5299" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5300" max="5302" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5303" max="5539" width="11.42578125" style="1"/>
-    <col min="5540" max="5540" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5541" max="5541" width="0.85546875" style="1" customWidth="1"/>
-    <col min="5542" max="5542" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5543" max="5543" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5544" max="5546" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5547" max="5547" width="0.85546875" style="1" customWidth="1"/>
-    <col min="5548" max="5548" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5549" max="5549" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5550" max="5550" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5551" max="5552" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5553" max="5553" width="0.85546875" style="1" customWidth="1"/>
-    <col min="5554" max="5554" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5555" max="5555" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5556" max="5558" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5559" max="5795" width="11.42578125" style="1"/>
-    <col min="5796" max="5796" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5797" max="5797" width="0.85546875" style="1" customWidth="1"/>
-    <col min="5798" max="5798" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5799" max="5799" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5800" max="5802" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5803" max="5803" width="0.85546875" style="1" customWidth="1"/>
-    <col min="5804" max="5804" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5805" max="5805" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5806" max="5806" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5807" max="5808" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5809" max="5809" width="0.85546875" style="1" customWidth="1"/>
-    <col min="5810" max="5810" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5811" max="5811" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5812" max="5814" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5815" max="6051" width="11.42578125" style="1"/>
-    <col min="6052" max="6052" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6053" max="6053" width="0.85546875" style="1" customWidth="1"/>
-    <col min="6054" max="6054" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6055" max="6055" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6056" max="6058" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6059" max="6059" width="0.85546875" style="1" customWidth="1"/>
-    <col min="6060" max="6060" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6061" max="6061" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6062" max="6062" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6063" max="6064" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6065" max="6065" width="0.85546875" style="1" customWidth="1"/>
-    <col min="6066" max="6066" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6067" max="6067" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6068" max="6070" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6071" max="6307" width="11.42578125" style="1"/>
-    <col min="6308" max="6308" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6309" max="6309" width="0.85546875" style="1" customWidth="1"/>
-    <col min="6310" max="6310" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6311" max="6311" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6312" max="6314" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6315" max="6315" width="0.85546875" style="1" customWidth="1"/>
-    <col min="6316" max="6316" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6317" max="6317" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6318" max="6318" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6319" max="6320" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6321" max="6321" width="0.85546875" style="1" customWidth="1"/>
-    <col min="6322" max="6322" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6323" max="6323" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6324" max="6326" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6327" max="6563" width="11.42578125" style="1"/>
-    <col min="6564" max="6564" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6565" max="6565" width="0.85546875" style="1" customWidth="1"/>
-    <col min="6566" max="6566" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6567" max="6567" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6568" max="6570" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6571" max="6571" width="0.85546875" style="1" customWidth="1"/>
-    <col min="6572" max="6572" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6573" max="6573" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6574" max="6574" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6575" max="6576" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6577" max="6577" width="0.85546875" style="1" customWidth="1"/>
-    <col min="6578" max="6578" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6579" max="6579" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6580" max="6582" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6583" max="6819" width="11.42578125" style="1"/>
-    <col min="6820" max="6820" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6821" max="6821" width="0.85546875" style="1" customWidth="1"/>
-    <col min="6822" max="6822" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6823" max="6823" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6824" max="6826" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6827" max="6827" width="0.85546875" style="1" customWidth="1"/>
-    <col min="6828" max="6828" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6829" max="6829" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6830" max="6830" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6831" max="6832" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6833" max="6833" width="0.85546875" style="1" customWidth="1"/>
-    <col min="6834" max="6834" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6835" max="6835" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6836" max="6838" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6839" max="7075" width="11.42578125" style="1"/>
-    <col min="7076" max="7076" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7077" max="7077" width="0.85546875" style="1" customWidth="1"/>
-    <col min="7078" max="7078" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7079" max="7079" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7080" max="7082" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7083" max="7083" width="0.85546875" style="1" customWidth="1"/>
-    <col min="7084" max="7084" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7085" max="7085" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7086" max="7086" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7087" max="7088" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7089" max="7089" width="0.85546875" style="1" customWidth="1"/>
-    <col min="7090" max="7090" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7091" max="7091" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7092" max="7094" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7095" max="7331" width="11.42578125" style="1"/>
-    <col min="7332" max="7332" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7333" max="7333" width="0.85546875" style="1" customWidth="1"/>
-    <col min="7334" max="7334" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7335" max="7335" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7336" max="7338" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7339" max="7339" width="0.85546875" style="1" customWidth="1"/>
-    <col min="7340" max="7340" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7341" max="7341" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7342" max="7342" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7343" max="7344" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7345" max="7345" width="0.85546875" style="1" customWidth="1"/>
-    <col min="7346" max="7346" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7347" max="7347" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7348" max="7350" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7351" max="7587" width="11.42578125" style="1"/>
-    <col min="7588" max="7588" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7589" max="7589" width="0.85546875" style="1" customWidth="1"/>
-    <col min="7590" max="7590" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7591" max="7591" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7592" max="7594" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7595" max="7595" width="0.85546875" style="1" customWidth="1"/>
-    <col min="7596" max="7596" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7597" max="7597" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7598" max="7598" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7599" max="7600" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7601" max="7601" width="0.85546875" style="1" customWidth="1"/>
-    <col min="7602" max="7602" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7603" max="7603" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7604" max="7606" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7607" max="7843" width="11.42578125" style="1"/>
-    <col min="7844" max="7844" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7845" max="7845" width="0.85546875" style="1" customWidth="1"/>
-    <col min="7846" max="7846" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7847" max="7847" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7848" max="7850" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7851" max="7851" width="0.85546875" style="1" customWidth="1"/>
-    <col min="7852" max="7852" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7853" max="7853" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7854" max="7854" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7855" max="7856" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7857" max="7857" width="0.85546875" style="1" customWidth="1"/>
-    <col min="7858" max="7858" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7859" max="7859" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7860" max="7862" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7863" max="8099" width="11.42578125" style="1"/>
-    <col min="8100" max="8100" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8101" max="8101" width="0.85546875" style="1" customWidth="1"/>
-    <col min="8102" max="8102" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8103" max="8103" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8104" max="8106" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8107" max="8107" width="0.85546875" style="1" customWidth="1"/>
-    <col min="8108" max="8108" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8109" max="8109" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8110" max="8110" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8111" max="8112" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8113" max="8113" width="0.85546875" style="1" customWidth="1"/>
-    <col min="8114" max="8114" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8115" max="8115" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8116" max="8118" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8119" max="8355" width="11.42578125" style="1"/>
-    <col min="8356" max="8356" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8357" max="8357" width="0.85546875" style="1" customWidth="1"/>
-    <col min="8358" max="8358" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8359" max="8359" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8360" max="8362" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8363" max="8363" width="0.85546875" style="1" customWidth="1"/>
-    <col min="8364" max="8364" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8365" max="8365" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8366" max="8366" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8367" max="8368" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8369" max="8369" width="0.85546875" style="1" customWidth="1"/>
-    <col min="8370" max="8370" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8371" max="8371" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8372" max="8374" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8375" max="8611" width="11.42578125" style="1"/>
-    <col min="8612" max="8612" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8613" max="8613" width="0.85546875" style="1" customWidth="1"/>
-    <col min="8614" max="8614" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8615" max="8615" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8616" max="8618" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8619" max="8619" width="0.85546875" style="1" customWidth="1"/>
-    <col min="8620" max="8620" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8621" max="8621" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8622" max="8622" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8623" max="8624" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8625" max="8625" width="0.85546875" style="1" customWidth="1"/>
-    <col min="8626" max="8626" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8627" max="8627" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8628" max="8630" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8631" max="8867" width="11.42578125" style="1"/>
-    <col min="8868" max="8868" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8869" max="8869" width="0.85546875" style="1" customWidth="1"/>
-    <col min="8870" max="8870" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8871" max="8871" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8872" max="8874" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8875" max="8875" width="0.85546875" style="1" customWidth="1"/>
-    <col min="8876" max="8876" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8877" max="8877" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8878" max="8878" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8879" max="8880" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8881" max="8881" width="0.85546875" style="1" customWidth="1"/>
-    <col min="8882" max="8882" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8883" max="8883" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8884" max="8886" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8887" max="9123" width="11.42578125" style="1"/>
-    <col min="9124" max="9124" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9125" max="9125" width="0.85546875" style="1" customWidth="1"/>
-    <col min="9126" max="9126" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9127" max="9127" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9128" max="9130" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9131" max="9131" width="0.85546875" style="1" customWidth="1"/>
-    <col min="9132" max="9132" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9133" max="9133" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9134" max="9134" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9135" max="9136" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9137" max="9137" width="0.85546875" style="1" customWidth="1"/>
-    <col min="9138" max="9138" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9139" max="9139" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9140" max="9142" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9143" max="9379" width="11.42578125" style="1"/>
-    <col min="9380" max="9380" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9381" max="9381" width="0.85546875" style="1" customWidth="1"/>
-    <col min="9382" max="9382" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9383" max="9383" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9384" max="9386" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9387" max="9387" width="0.85546875" style="1" customWidth="1"/>
-    <col min="9388" max="9388" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9389" max="9389" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9390" max="9390" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9391" max="9392" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9393" max="9393" width="0.85546875" style="1" customWidth="1"/>
-    <col min="9394" max="9394" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9395" max="9395" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9396" max="9398" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9399" max="9635" width="11.42578125" style="1"/>
-    <col min="9636" max="9636" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9637" max="9637" width="0.85546875" style="1" customWidth="1"/>
-    <col min="9638" max="9638" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9639" max="9639" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9640" max="9642" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9643" max="9643" width="0.85546875" style="1" customWidth="1"/>
-    <col min="9644" max="9644" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9645" max="9645" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9646" max="9646" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9647" max="9648" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9649" max="9649" width="0.85546875" style="1" customWidth="1"/>
-    <col min="9650" max="9650" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9651" max="9651" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9652" max="9654" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9655" max="9891" width="11.42578125" style="1"/>
-    <col min="9892" max="9892" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9893" max="9893" width="0.85546875" style="1" customWidth="1"/>
-    <col min="9894" max="9894" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9895" max="9895" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9896" max="9898" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9899" max="9899" width="0.85546875" style="1" customWidth="1"/>
-    <col min="9900" max="9900" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9901" max="9901" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9902" max="9902" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9903" max="9904" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9905" max="9905" width="0.85546875" style="1" customWidth="1"/>
-    <col min="9906" max="9906" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9907" max="9907" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9908" max="9910" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9911" max="10147" width="11.42578125" style="1"/>
-    <col min="10148" max="10148" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10149" max="10149" width="0.85546875" style="1" customWidth="1"/>
-    <col min="10150" max="10150" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10151" max="10151" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10152" max="10154" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10155" max="10155" width="0.85546875" style="1" customWidth="1"/>
-    <col min="10156" max="10156" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10157" max="10157" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10158" max="10158" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10159" max="10160" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10161" max="10161" width="0.85546875" style="1" customWidth="1"/>
-    <col min="10162" max="10162" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10163" max="10163" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10164" max="10166" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10167" max="10403" width="11.42578125" style="1"/>
-    <col min="10404" max="10404" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10405" max="10405" width="0.85546875" style="1" customWidth="1"/>
-    <col min="10406" max="10406" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10407" max="10407" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10408" max="10410" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10411" max="10411" width="0.85546875" style="1" customWidth="1"/>
-    <col min="10412" max="10412" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10413" max="10413" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10414" max="10414" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10415" max="10416" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10417" max="10417" width="0.85546875" style="1" customWidth="1"/>
-    <col min="10418" max="10418" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10419" max="10419" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10420" max="10422" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10423" max="10659" width="11.42578125" style="1"/>
-    <col min="10660" max="10660" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10661" max="10661" width="0.85546875" style="1" customWidth="1"/>
-    <col min="10662" max="10662" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10663" max="10663" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10664" max="10666" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10667" max="10667" width="0.85546875" style="1" customWidth="1"/>
-    <col min="10668" max="10668" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10669" max="10669" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10670" max="10670" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10671" max="10672" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10673" max="10673" width="0.85546875" style="1" customWidth="1"/>
-    <col min="10674" max="10674" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10675" max="10675" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10676" max="10678" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10679" max="10915" width="11.42578125" style="1"/>
-    <col min="10916" max="10916" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10917" max="10917" width="0.85546875" style="1" customWidth="1"/>
-    <col min="10918" max="10918" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10919" max="10919" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10920" max="10922" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10923" max="10923" width="0.85546875" style="1" customWidth="1"/>
-    <col min="10924" max="10924" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10925" max="10925" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10926" max="10926" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10927" max="10928" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10929" max="10929" width="0.85546875" style="1" customWidth="1"/>
-    <col min="10930" max="10930" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10931" max="10931" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10932" max="10934" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10935" max="11171" width="11.42578125" style="1"/>
-    <col min="11172" max="11172" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11173" max="11173" width="0.85546875" style="1" customWidth="1"/>
-    <col min="11174" max="11174" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11175" max="11175" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11176" max="11178" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11179" max="11179" width="0.85546875" style="1" customWidth="1"/>
-    <col min="11180" max="11180" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11181" max="11181" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11182" max="11182" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11183" max="11184" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11185" max="11185" width="0.85546875" style="1" customWidth="1"/>
-    <col min="11186" max="11186" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11187" max="11187" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11188" max="11190" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11191" max="11427" width="11.42578125" style="1"/>
-    <col min="11428" max="11428" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11429" max="11429" width="0.85546875" style="1" customWidth="1"/>
-    <col min="11430" max="11430" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11431" max="11431" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11432" max="11434" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11435" max="11435" width="0.85546875" style="1" customWidth="1"/>
-    <col min="11436" max="11436" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11437" max="11437" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11438" max="11438" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11439" max="11440" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11441" max="11441" width="0.85546875" style="1" customWidth="1"/>
-    <col min="11442" max="11442" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11443" max="11443" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11444" max="11446" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11447" max="11683" width="11.42578125" style="1"/>
-    <col min="11684" max="11684" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11685" max="11685" width="0.85546875" style="1" customWidth="1"/>
-    <col min="11686" max="11686" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11687" max="11687" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11688" max="11690" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11691" max="11691" width="0.85546875" style="1" customWidth="1"/>
-    <col min="11692" max="11692" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11693" max="11693" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11694" max="11694" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11695" max="11696" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11697" max="11697" width="0.85546875" style="1" customWidth="1"/>
-    <col min="11698" max="11698" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11699" max="11699" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11700" max="11702" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11703" max="11939" width="11.42578125" style="1"/>
-    <col min="11940" max="11940" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11941" max="11941" width="0.85546875" style="1" customWidth="1"/>
-    <col min="11942" max="11942" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11943" max="11943" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11944" max="11946" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11947" max="11947" width="0.85546875" style="1" customWidth="1"/>
-    <col min="11948" max="11948" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11949" max="11949" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11950" max="11950" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11951" max="11952" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11953" max="11953" width="0.85546875" style="1" customWidth="1"/>
-    <col min="11954" max="11954" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11955" max="11955" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11956" max="11958" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11959" max="12195" width="11.42578125" style="1"/>
-    <col min="12196" max="12196" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12197" max="12197" width="0.85546875" style="1" customWidth="1"/>
-    <col min="12198" max="12198" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12199" max="12199" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12200" max="12202" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12203" max="12203" width="0.85546875" style="1" customWidth="1"/>
-    <col min="12204" max="12204" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12205" max="12205" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12206" max="12206" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12207" max="12208" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12209" max="12209" width="0.85546875" style="1" customWidth="1"/>
-    <col min="12210" max="12210" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12211" max="12211" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12212" max="12214" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12215" max="12451" width="11.42578125" style="1"/>
-    <col min="12452" max="12452" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12453" max="12453" width="0.85546875" style="1" customWidth="1"/>
-    <col min="12454" max="12454" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12455" max="12455" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12456" max="12458" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12459" max="12459" width="0.85546875" style="1" customWidth="1"/>
-    <col min="12460" max="12460" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12461" max="12461" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12462" max="12462" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12463" max="12464" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12465" max="12465" width="0.85546875" style="1" customWidth="1"/>
-    <col min="12466" max="12466" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12467" max="12467" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12468" max="12470" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12471" max="12707" width="11.42578125" style="1"/>
-    <col min="12708" max="12708" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12709" max="12709" width="0.85546875" style="1" customWidth="1"/>
-    <col min="12710" max="12710" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12711" max="12711" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12712" max="12714" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12715" max="12715" width="0.85546875" style="1" customWidth="1"/>
-    <col min="12716" max="12716" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12717" max="12717" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12718" max="12718" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12719" max="12720" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12721" max="12721" width="0.85546875" style="1" customWidth="1"/>
-    <col min="12722" max="12722" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12723" max="12723" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12724" max="12726" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12727" max="12963" width="11.42578125" style="1"/>
-    <col min="12964" max="12964" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12965" max="12965" width="0.85546875" style="1" customWidth="1"/>
-    <col min="12966" max="12966" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12967" max="12967" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12968" max="12970" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12971" max="12971" width="0.85546875" style="1" customWidth="1"/>
-    <col min="12972" max="12972" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12973" max="12973" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12974" max="12974" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12975" max="12976" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12977" max="12977" width="0.85546875" style="1" customWidth="1"/>
-    <col min="12978" max="12978" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12979" max="12979" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12980" max="12982" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12983" max="13219" width="11.42578125" style="1"/>
-    <col min="13220" max="13220" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13221" max="13221" width="0.85546875" style="1" customWidth="1"/>
-    <col min="13222" max="13222" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13223" max="13223" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13224" max="13226" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13227" max="13227" width="0.85546875" style="1" customWidth="1"/>
-    <col min="13228" max="13228" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13229" max="13229" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13230" max="13230" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13231" max="13232" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13233" max="13233" width="0.85546875" style="1" customWidth="1"/>
-    <col min="13234" max="13234" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13235" max="13235" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13236" max="13238" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13239" max="13475" width="11.42578125" style="1"/>
-    <col min="13476" max="13476" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13477" max="13477" width="0.85546875" style="1" customWidth="1"/>
-    <col min="13478" max="13478" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13479" max="13479" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13480" max="13482" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13483" max="13483" width="0.85546875" style="1" customWidth="1"/>
-    <col min="13484" max="13484" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13485" max="13485" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13486" max="13486" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13487" max="13488" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13489" max="13489" width="0.85546875" style="1" customWidth="1"/>
-    <col min="13490" max="13490" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13491" max="13491" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13492" max="13494" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13495" max="13731" width="11.42578125" style="1"/>
-    <col min="13732" max="13732" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13733" max="13733" width="0.85546875" style="1" customWidth="1"/>
-    <col min="13734" max="13734" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13735" max="13735" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13736" max="13738" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13739" max="13739" width="0.85546875" style="1" customWidth="1"/>
-    <col min="13740" max="13740" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13741" max="13741" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13742" max="13742" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13743" max="13744" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13745" max="13745" width="0.85546875" style="1" customWidth="1"/>
-    <col min="13746" max="13746" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13747" max="13747" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13748" max="13750" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13751" max="13987" width="11.42578125" style="1"/>
-    <col min="13988" max="13988" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13989" max="13989" width="0.85546875" style="1" customWidth="1"/>
-    <col min="13990" max="13990" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13991" max="13991" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13992" max="13994" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13995" max="13995" width="0.85546875" style="1" customWidth="1"/>
-    <col min="13996" max="13996" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13997" max="13997" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13998" max="13998" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13999" max="14000" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14001" max="14001" width="0.85546875" style="1" customWidth="1"/>
-    <col min="14002" max="14002" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14003" max="14003" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14004" max="14006" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14007" max="14243" width="11.42578125" style="1"/>
-    <col min="14244" max="14244" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14245" max="14245" width="0.85546875" style="1" customWidth="1"/>
-    <col min="14246" max="14246" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14247" max="14247" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14248" max="14250" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14251" max="14251" width="0.85546875" style="1" customWidth="1"/>
-    <col min="14252" max="14252" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14253" max="14253" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14254" max="14254" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14255" max="14256" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14257" max="14257" width="0.85546875" style="1" customWidth="1"/>
-    <col min="14258" max="14258" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14259" max="14259" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14260" max="14262" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14263" max="14499" width="11.42578125" style="1"/>
-    <col min="14500" max="14500" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14501" max="14501" width="0.85546875" style="1" customWidth="1"/>
-    <col min="14502" max="14502" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14503" max="14503" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14504" max="14506" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14507" max="14507" width="0.85546875" style="1" customWidth="1"/>
-    <col min="14508" max="14508" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14509" max="14509" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14510" max="14510" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14511" max="14512" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14513" max="14513" width="0.85546875" style="1" customWidth="1"/>
-    <col min="14514" max="14514" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14515" max="14515" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14516" max="14518" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14519" max="14755" width="11.42578125" style="1"/>
-    <col min="14756" max="14756" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14757" max="14757" width="0.85546875" style="1" customWidth="1"/>
-    <col min="14758" max="14758" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14759" max="14759" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14760" max="14762" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14763" max="14763" width="0.85546875" style="1" customWidth="1"/>
-    <col min="14764" max="14764" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14765" max="14765" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14766" max="14766" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14767" max="14768" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14769" max="14769" width="0.85546875" style="1" customWidth="1"/>
-    <col min="14770" max="14770" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14771" max="14771" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14772" max="14774" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14775" max="15011" width="11.42578125" style="1"/>
-    <col min="15012" max="15012" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15013" max="15013" width="0.85546875" style="1" customWidth="1"/>
-    <col min="15014" max="15014" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15015" max="15015" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15016" max="15018" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15019" max="15019" width="0.85546875" style="1" customWidth="1"/>
-    <col min="15020" max="15020" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15021" max="15021" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15022" max="15022" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15023" max="15024" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15025" max="15025" width="0.85546875" style="1" customWidth="1"/>
-    <col min="15026" max="15026" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15027" max="15027" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15028" max="15030" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15031" max="15267" width="11.42578125" style="1"/>
-    <col min="15268" max="15268" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15269" max="15269" width="0.85546875" style="1" customWidth="1"/>
-    <col min="15270" max="15270" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15271" max="15271" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15272" max="15274" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15275" max="15275" width="0.85546875" style="1" customWidth="1"/>
-    <col min="15276" max="15276" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15277" max="15277" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15278" max="15278" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15279" max="15280" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15281" max="15281" width="0.85546875" style="1" customWidth="1"/>
-    <col min="15282" max="15282" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15283" max="15283" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15284" max="15286" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15287" max="15523" width="11.42578125" style="1"/>
-    <col min="15524" max="15524" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15525" max="15525" width="0.85546875" style="1" customWidth="1"/>
-    <col min="15526" max="15526" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15527" max="15527" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15528" max="15530" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15531" max="15531" width="0.85546875" style="1" customWidth="1"/>
-    <col min="15532" max="15532" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15533" max="15533" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15534" max="15534" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15535" max="15536" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15537" max="15537" width="0.85546875" style="1" customWidth="1"/>
-    <col min="15538" max="15538" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15539" max="15539" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15540" max="15542" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15543" max="15779" width="11.42578125" style="1"/>
-    <col min="15780" max="15780" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15781" max="15781" width="0.85546875" style="1" customWidth="1"/>
-    <col min="15782" max="15782" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15783" max="15783" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15784" max="15786" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15787" max="15787" width="0.85546875" style="1" customWidth="1"/>
-    <col min="15788" max="15788" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15789" max="15789" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15790" max="15790" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15791" max="15792" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15793" max="15793" width="0.85546875" style="1" customWidth="1"/>
-    <col min="15794" max="15794" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15795" max="15795" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15796" max="15798" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15799" max="16035" width="11.42578125" style="1"/>
-    <col min="16036" max="16036" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16037" max="16037" width="0.85546875" style="1" customWidth="1"/>
-    <col min="16038" max="16038" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16039" max="16039" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16040" max="16042" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16043" max="16043" width="0.85546875" style="1" customWidth="1"/>
-    <col min="16044" max="16044" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16045" max="16045" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16046" max="16046" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16047" max="16048" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16049" max="16049" width="0.85546875" style="1" customWidth="1"/>
-    <col min="16050" max="16050" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16051" max="16051" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16052" max="16054" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16055" max="16384" width="11.42578125" style="1"/>
+    <col min="18" max="21" width="11.3984375" style="1"/>
+    <col min="22" max="22" width="11.8984375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="9.69921875" style="2" customWidth="1"/>
+    <col min="24" max="24" width="8.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="163" width="11.3984375" style="1"/>
+    <col min="164" max="164" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="0.8984375" style="1" customWidth="1"/>
+    <col min="166" max="166" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="168" max="170" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="0.8984375" style="1" customWidth="1"/>
+    <col min="172" max="172" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="175" max="176" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="0.8984375" style="1" customWidth="1"/>
+    <col min="178" max="178" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="180" max="182" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="183" max="419" width="11.3984375" style="1"/>
+    <col min="420" max="420" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="421" max="421" width="0.8984375" style="1" customWidth="1"/>
+    <col min="422" max="422" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="423" max="423" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="424" max="426" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="427" max="427" width="0.8984375" style="1" customWidth="1"/>
+    <col min="428" max="428" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="429" max="429" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="430" max="430" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="431" max="432" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="433" max="433" width="0.8984375" style="1" customWidth="1"/>
+    <col min="434" max="434" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="435" max="435" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="436" max="438" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="439" max="675" width="11.3984375" style="1"/>
+    <col min="676" max="676" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="677" max="677" width="0.8984375" style="1" customWidth="1"/>
+    <col min="678" max="678" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="679" max="679" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="680" max="682" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="683" max="683" width="0.8984375" style="1" customWidth="1"/>
+    <col min="684" max="684" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="685" max="685" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="686" max="686" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="687" max="688" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="689" max="689" width="0.8984375" style="1" customWidth="1"/>
+    <col min="690" max="690" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="691" max="691" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="692" max="694" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="695" max="931" width="11.3984375" style="1"/>
+    <col min="932" max="932" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="933" max="933" width="0.8984375" style="1" customWidth="1"/>
+    <col min="934" max="934" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="935" max="935" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="936" max="938" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="939" max="939" width="0.8984375" style="1" customWidth="1"/>
+    <col min="940" max="940" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="941" max="941" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="942" max="942" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="943" max="944" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="945" max="945" width="0.8984375" style="1" customWidth="1"/>
+    <col min="946" max="946" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="947" max="947" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="948" max="950" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="951" max="1187" width="11.3984375" style="1"/>
+    <col min="1188" max="1188" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1189" max="1189" width="0.8984375" style="1" customWidth="1"/>
+    <col min="1190" max="1190" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1191" max="1191" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1192" max="1194" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1195" max="1195" width="0.8984375" style="1" customWidth="1"/>
+    <col min="1196" max="1196" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1197" max="1197" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1198" max="1198" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1199" max="1200" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1201" max="1201" width="0.8984375" style="1" customWidth="1"/>
+    <col min="1202" max="1202" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1203" max="1203" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1204" max="1206" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1207" max="1443" width="11.3984375" style="1"/>
+    <col min="1444" max="1444" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1445" max="1445" width="0.8984375" style="1" customWidth="1"/>
+    <col min="1446" max="1446" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1447" max="1447" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1448" max="1450" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1451" max="1451" width="0.8984375" style="1" customWidth="1"/>
+    <col min="1452" max="1452" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1453" max="1453" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1454" max="1454" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1455" max="1456" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1457" max="1457" width="0.8984375" style="1" customWidth="1"/>
+    <col min="1458" max="1458" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1459" max="1459" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1460" max="1462" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1463" max="1699" width="11.3984375" style="1"/>
+    <col min="1700" max="1700" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1701" max="1701" width="0.8984375" style="1" customWidth="1"/>
+    <col min="1702" max="1702" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1703" max="1703" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1704" max="1706" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1707" max="1707" width="0.8984375" style="1" customWidth="1"/>
+    <col min="1708" max="1708" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1709" max="1709" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1710" max="1710" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1711" max="1712" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1713" max="1713" width="0.8984375" style="1" customWidth="1"/>
+    <col min="1714" max="1714" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1715" max="1715" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1716" max="1718" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1719" max="1955" width="11.3984375" style="1"/>
+    <col min="1956" max="1956" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1957" max="1957" width="0.8984375" style="1" customWidth="1"/>
+    <col min="1958" max="1958" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1959" max="1959" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1960" max="1962" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1963" max="1963" width="0.8984375" style="1" customWidth="1"/>
+    <col min="1964" max="1964" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1965" max="1965" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1966" max="1966" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1967" max="1968" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1969" max="1969" width="0.8984375" style="1" customWidth="1"/>
+    <col min="1970" max="1970" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1971" max="1971" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1972" max="1974" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1975" max="2211" width="11.3984375" style="1"/>
+    <col min="2212" max="2212" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2213" max="2213" width="0.8984375" style="1" customWidth="1"/>
+    <col min="2214" max="2214" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2215" max="2215" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2216" max="2218" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2219" max="2219" width="0.8984375" style="1" customWidth="1"/>
+    <col min="2220" max="2220" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2221" max="2221" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2222" max="2222" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2223" max="2224" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2225" max="2225" width="0.8984375" style="1" customWidth="1"/>
+    <col min="2226" max="2226" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2227" max="2227" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2228" max="2230" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2231" max="2467" width="11.3984375" style="1"/>
+    <col min="2468" max="2468" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2469" max="2469" width="0.8984375" style="1" customWidth="1"/>
+    <col min="2470" max="2470" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2471" max="2471" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2472" max="2474" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2475" max="2475" width="0.8984375" style="1" customWidth="1"/>
+    <col min="2476" max="2476" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2477" max="2477" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2478" max="2478" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2479" max="2480" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2481" max="2481" width="0.8984375" style="1" customWidth="1"/>
+    <col min="2482" max="2482" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2483" max="2483" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2484" max="2486" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2487" max="2723" width="11.3984375" style="1"/>
+    <col min="2724" max="2724" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2725" max="2725" width="0.8984375" style="1" customWidth="1"/>
+    <col min="2726" max="2726" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2727" max="2727" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2728" max="2730" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2731" max="2731" width="0.8984375" style="1" customWidth="1"/>
+    <col min="2732" max="2732" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2733" max="2733" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2734" max="2734" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2735" max="2736" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2737" max="2737" width="0.8984375" style="1" customWidth="1"/>
+    <col min="2738" max="2738" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2739" max="2739" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2740" max="2742" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2743" max="2979" width="11.3984375" style="1"/>
+    <col min="2980" max="2980" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2981" max="2981" width="0.8984375" style="1" customWidth="1"/>
+    <col min="2982" max="2982" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2983" max="2983" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2984" max="2986" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2987" max="2987" width="0.8984375" style="1" customWidth="1"/>
+    <col min="2988" max="2988" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2989" max="2989" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2990" max="2990" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2991" max="2992" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2993" max="2993" width="0.8984375" style="1" customWidth="1"/>
+    <col min="2994" max="2994" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2995" max="2995" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2996" max="2998" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2999" max="3235" width="11.3984375" style="1"/>
+    <col min="3236" max="3236" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3237" max="3237" width="0.8984375" style="1" customWidth="1"/>
+    <col min="3238" max="3238" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3239" max="3239" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3240" max="3242" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3243" max="3243" width="0.8984375" style="1" customWidth="1"/>
+    <col min="3244" max="3244" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3245" max="3245" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3246" max="3246" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3247" max="3248" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3249" max="3249" width="0.8984375" style="1" customWidth="1"/>
+    <col min="3250" max="3250" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3251" max="3251" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3252" max="3254" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3255" max="3491" width="11.3984375" style="1"/>
+    <col min="3492" max="3492" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3493" max="3493" width="0.8984375" style="1" customWidth="1"/>
+    <col min="3494" max="3494" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3495" max="3495" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3496" max="3498" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3499" max="3499" width="0.8984375" style="1" customWidth="1"/>
+    <col min="3500" max="3500" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3501" max="3501" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3502" max="3502" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3503" max="3504" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3505" max="3505" width="0.8984375" style="1" customWidth="1"/>
+    <col min="3506" max="3506" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3507" max="3507" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3508" max="3510" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3511" max="3747" width="11.3984375" style="1"/>
+    <col min="3748" max="3748" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3749" max="3749" width="0.8984375" style="1" customWidth="1"/>
+    <col min="3750" max="3750" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3751" max="3751" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3752" max="3754" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3755" max="3755" width="0.8984375" style="1" customWidth="1"/>
+    <col min="3756" max="3756" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3757" max="3757" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3758" max="3758" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3759" max="3760" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3761" max="3761" width="0.8984375" style="1" customWidth="1"/>
+    <col min="3762" max="3762" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3763" max="3763" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3764" max="3766" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3767" max="4003" width="11.3984375" style="1"/>
+    <col min="4004" max="4004" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4005" max="4005" width="0.8984375" style="1" customWidth="1"/>
+    <col min="4006" max="4006" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4007" max="4007" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4008" max="4010" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4011" max="4011" width="0.8984375" style="1" customWidth="1"/>
+    <col min="4012" max="4012" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4013" max="4013" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4014" max="4014" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4015" max="4016" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4017" max="4017" width="0.8984375" style="1" customWidth="1"/>
+    <col min="4018" max="4018" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4019" max="4019" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4020" max="4022" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4023" max="4259" width="11.3984375" style="1"/>
+    <col min="4260" max="4260" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4261" max="4261" width="0.8984375" style="1" customWidth="1"/>
+    <col min="4262" max="4262" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4263" max="4263" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4264" max="4266" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4267" max="4267" width="0.8984375" style="1" customWidth="1"/>
+    <col min="4268" max="4268" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4269" max="4269" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4270" max="4270" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4271" max="4272" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4273" max="4273" width="0.8984375" style="1" customWidth="1"/>
+    <col min="4274" max="4274" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4275" max="4275" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4276" max="4278" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4279" max="4515" width="11.3984375" style="1"/>
+    <col min="4516" max="4516" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4517" max="4517" width="0.8984375" style="1" customWidth="1"/>
+    <col min="4518" max="4518" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4519" max="4519" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4520" max="4522" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4523" max="4523" width="0.8984375" style="1" customWidth="1"/>
+    <col min="4524" max="4524" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4525" max="4525" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4526" max="4526" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4527" max="4528" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4529" max="4529" width="0.8984375" style="1" customWidth="1"/>
+    <col min="4530" max="4530" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4531" max="4531" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4532" max="4534" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4535" max="4771" width="11.3984375" style="1"/>
+    <col min="4772" max="4772" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4773" max="4773" width="0.8984375" style="1" customWidth="1"/>
+    <col min="4774" max="4774" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4775" max="4775" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4776" max="4778" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4779" max="4779" width="0.8984375" style="1" customWidth="1"/>
+    <col min="4780" max="4780" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4781" max="4781" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4782" max="4782" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4783" max="4784" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4785" max="4785" width="0.8984375" style="1" customWidth="1"/>
+    <col min="4786" max="4786" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4787" max="4787" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4788" max="4790" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4791" max="5027" width="11.3984375" style="1"/>
+    <col min="5028" max="5028" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5029" max="5029" width="0.8984375" style="1" customWidth="1"/>
+    <col min="5030" max="5030" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5031" max="5031" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5032" max="5034" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5035" max="5035" width="0.8984375" style="1" customWidth="1"/>
+    <col min="5036" max="5036" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5037" max="5037" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5038" max="5038" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5039" max="5040" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5041" max="5041" width="0.8984375" style="1" customWidth="1"/>
+    <col min="5042" max="5042" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5043" max="5043" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5044" max="5046" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5047" max="5283" width="11.3984375" style="1"/>
+    <col min="5284" max="5284" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5285" max="5285" width="0.8984375" style="1" customWidth="1"/>
+    <col min="5286" max="5286" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5287" max="5287" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5288" max="5290" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5291" max="5291" width="0.8984375" style="1" customWidth="1"/>
+    <col min="5292" max="5292" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5293" max="5293" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5294" max="5294" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5295" max="5296" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5297" max="5297" width="0.8984375" style="1" customWidth="1"/>
+    <col min="5298" max="5298" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5299" max="5299" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5300" max="5302" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5303" max="5539" width="11.3984375" style="1"/>
+    <col min="5540" max="5540" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5541" max="5541" width="0.8984375" style="1" customWidth="1"/>
+    <col min="5542" max="5542" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5543" max="5543" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5544" max="5546" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5547" max="5547" width="0.8984375" style="1" customWidth="1"/>
+    <col min="5548" max="5548" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5549" max="5549" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5550" max="5550" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5551" max="5552" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5553" max="5553" width="0.8984375" style="1" customWidth="1"/>
+    <col min="5554" max="5554" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5555" max="5555" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5556" max="5558" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5559" max="5795" width="11.3984375" style="1"/>
+    <col min="5796" max="5796" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5797" max="5797" width="0.8984375" style="1" customWidth="1"/>
+    <col min="5798" max="5798" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5799" max="5799" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5800" max="5802" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5803" max="5803" width="0.8984375" style="1" customWidth="1"/>
+    <col min="5804" max="5804" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5805" max="5805" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5806" max="5806" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5807" max="5808" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5809" max="5809" width="0.8984375" style="1" customWidth="1"/>
+    <col min="5810" max="5810" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5811" max="5811" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5812" max="5814" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5815" max="6051" width="11.3984375" style="1"/>
+    <col min="6052" max="6052" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6053" max="6053" width="0.8984375" style="1" customWidth="1"/>
+    <col min="6054" max="6054" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6055" max="6055" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6056" max="6058" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6059" max="6059" width="0.8984375" style="1" customWidth="1"/>
+    <col min="6060" max="6060" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6061" max="6061" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6062" max="6062" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6063" max="6064" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6065" max="6065" width="0.8984375" style="1" customWidth="1"/>
+    <col min="6066" max="6066" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6067" max="6067" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6068" max="6070" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6071" max="6307" width="11.3984375" style="1"/>
+    <col min="6308" max="6308" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6309" max="6309" width="0.8984375" style="1" customWidth="1"/>
+    <col min="6310" max="6310" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6311" max="6311" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6312" max="6314" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6315" max="6315" width="0.8984375" style="1" customWidth="1"/>
+    <col min="6316" max="6316" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6317" max="6317" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6318" max="6318" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6319" max="6320" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6321" max="6321" width="0.8984375" style="1" customWidth="1"/>
+    <col min="6322" max="6322" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6323" max="6323" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6324" max="6326" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6327" max="6563" width="11.3984375" style="1"/>
+    <col min="6564" max="6564" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6565" max="6565" width="0.8984375" style="1" customWidth="1"/>
+    <col min="6566" max="6566" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6567" max="6567" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6568" max="6570" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6571" max="6571" width="0.8984375" style="1" customWidth="1"/>
+    <col min="6572" max="6572" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6573" max="6573" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6574" max="6574" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6575" max="6576" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6577" max="6577" width="0.8984375" style="1" customWidth="1"/>
+    <col min="6578" max="6578" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6579" max="6579" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6580" max="6582" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6583" max="6819" width="11.3984375" style="1"/>
+    <col min="6820" max="6820" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6821" max="6821" width="0.8984375" style="1" customWidth="1"/>
+    <col min="6822" max="6822" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6823" max="6823" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6824" max="6826" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6827" max="6827" width="0.8984375" style="1" customWidth="1"/>
+    <col min="6828" max="6828" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6829" max="6829" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6830" max="6830" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6831" max="6832" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6833" max="6833" width="0.8984375" style="1" customWidth="1"/>
+    <col min="6834" max="6834" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6835" max="6835" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6836" max="6838" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6839" max="7075" width="11.3984375" style="1"/>
+    <col min="7076" max="7076" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7077" max="7077" width="0.8984375" style="1" customWidth="1"/>
+    <col min="7078" max="7078" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7079" max="7079" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7080" max="7082" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7083" max="7083" width="0.8984375" style="1" customWidth="1"/>
+    <col min="7084" max="7084" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7085" max="7085" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7086" max="7086" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7087" max="7088" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7089" max="7089" width="0.8984375" style="1" customWidth="1"/>
+    <col min="7090" max="7090" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7091" max="7091" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7092" max="7094" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7095" max="7331" width="11.3984375" style="1"/>
+    <col min="7332" max="7332" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7333" max="7333" width="0.8984375" style="1" customWidth="1"/>
+    <col min="7334" max="7334" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7335" max="7335" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7336" max="7338" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7339" max="7339" width="0.8984375" style="1" customWidth="1"/>
+    <col min="7340" max="7340" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7341" max="7341" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7342" max="7342" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7343" max="7344" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7345" max="7345" width="0.8984375" style="1" customWidth="1"/>
+    <col min="7346" max="7346" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7347" max="7347" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7348" max="7350" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7351" max="7587" width="11.3984375" style="1"/>
+    <col min="7588" max="7588" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7589" max="7589" width="0.8984375" style="1" customWidth="1"/>
+    <col min="7590" max="7590" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7591" max="7591" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7592" max="7594" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7595" max="7595" width="0.8984375" style="1" customWidth="1"/>
+    <col min="7596" max="7596" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7597" max="7597" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7598" max="7598" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7599" max="7600" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7601" max="7601" width="0.8984375" style="1" customWidth="1"/>
+    <col min="7602" max="7602" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7603" max="7603" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7604" max="7606" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7607" max="7843" width="11.3984375" style="1"/>
+    <col min="7844" max="7844" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7845" max="7845" width="0.8984375" style="1" customWidth="1"/>
+    <col min="7846" max="7846" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7847" max="7847" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7848" max="7850" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7851" max="7851" width="0.8984375" style="1" customWidth="1"/>
+    <col min="7852" max="7852" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7853" max="7853" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7854" max="7854" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7855" max="7856" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7857" max="7857" width="0.8984375" style="1" customWidth="1"/>
+    <col min="7858" max="7858" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7859" max="7859" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7860" max="7862" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7863" max="8099" width="11.3984375" style="1"/>
+    <col min="8100" max="8100" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8101" max="8101" width="0.8984375" style="1" customWidth="1"/>
+    <col min="8102" max="8102" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8103" max="8103" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8104" max="8106" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8107" max="8107" width="0.8984375" style="1" customWidth="1"/>
+    <col min="8108" max="8108" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8109" max="8109" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8110" max="8110" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8111" max="8112" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8113" max="8113" width="0.8984375" style="1" customWidth="1"/>
+    <col min="8114" max="8114" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8115" max="8115" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8116" max="8118" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8119" max="8355" width="11.3984375" style="1"/>
+    <col min="8356" max="8356" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8357" max="8357" width="0.8984375" style="1" customWidth="1"/>
+    <col min="8358" max="8358" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8359" max="8359" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8360" max="8362" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8363" max="8363" width="0.8984375" style="1" customWidth="1"/>
+    <col min="8364" max="8364" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8365" max="8365" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8366" max="8366" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8367" max="8368" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8369" max="8369" width="0.8984375" style="1" customWidth="1"/>
+    <col min="8370" max="8370" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8371" max="8371" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8372" max="8374" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8375" max="8611" width="11.3984375" style="1"/>
+    <col min="8612" max="8612" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8613" max="8613" width="0.8984375" style="1" customWidth="1"/>
+    <col min="8614" max="8614" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8615" max="8615" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8616" max="8618" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8619" max="8619" width="0.8984375" style="1" customWidth="1"/>
+    <col min="8620" max="8620" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8621" max="8621" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8622" max="8622" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8623" max="8624" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8625" max="8625" width="0.8984375" style="1" customWidth="1"/>
+    <col min="8626" max="8626" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8627" max="8627" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8628" max="8630" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8631" max="8867" width="11.3984375" style="1"/>
+    <col min="8868" max="8868" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8869" max="8869" width="0.8984375" style="1" customWidth="1"/>
+    <col min="8870" max="8870" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8871" max="8871" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8872" max="8874" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8875" max="8875" width="0.8984375" style="1" customWidth="1"/>
+    <col min="8876" max="8876" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8877" max="8877" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8878" max="8878" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8879" max="8880" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8881" max="8881" width="0.8984375" style="1" customWidth="1"/>
+    <col min="8882" max="8882" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8883" max="8883" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8884" max="8886" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8887" max="9123" width="11.3984375" style="1"/>
+    <col min="9124" max="9124" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9125" max="9125" width="0.8984375" style="1" customWidth="1"/>
+    <col min="9126" max="9126" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9127" max="9127" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9128" max="9130" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9131" max="9131" width="0.8984375" style="1" customWidth="1"/>
+    <col min="9132" max="9132" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9133" max="9133" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9134" max="9134" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9135" max="9136" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9137" max="9137" width="0.8984375" style="1" customWidth="1"/>
+    <col min="9138" max="9138" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9139" max="9139" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9140" max="9142" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9143" max="9379" width="11.3984375" style="1"/>
+    <col min="9380" max="9380" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9381" max="9381" width="0.8984375" style="1" customWidth="1"/>
+    <col min="9382" max="9382" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9383" max="9383" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9384" max="9386" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9387" max="9387" width="0.8984375" style="1" customWidth="1"/>
+    <col min="9388" max="9388" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9389" max="9389" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9390" max="9390" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9391" max="9392" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9393" max="9393" width="0.8984375" style="1" customWidth="1"/>
+    <col min="9394" max="9394" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9395" max="9395" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9396" max="9398" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9399" max="9635" width="11.3984375" style="1"/>
+    <col min="9636" max="9636" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9637" max="9637" width="0.8984375" style="1" customWidth="1"/>
+    <col min="9638" max="9638" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9639" max="9639" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9640" max="9642" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9643" max="9643" width="0.8984375" style="1" customWidth="1"/>
+    <col min="9644" max="9644" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9645" max="9645" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9646" max="9646" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9647" max="9648" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9649" max="9649" width="0.8984375" style="1" customWidth="1"/>
+    <col min="9650" max="9650" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9651" max="9651" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9652" max="9654" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9655" max="9891" width="11.3984375" style="1"/>
+    <col min="9892" max="9892" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9893" max="9893" width="0.8984375" style="1" customWidth="1"/>
+    <col min="9894" max="9894" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9895" max="9895" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9896" max="9898" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9899" max="9899" width="0.8984375" style="1" customWidth="1"/>
+    <col min="9900" max="9900" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9901" max="9901" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9902" max="9902" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9903" max="9904" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9905" max="9905" width="0.8984375" style="1" customWidth="1"/>
+    <col min="9906" max="9906" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9907" max="9907" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9908" max="9910" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9911" max="10147" width="11.3984375" style="1"/>
+    <col min="10148" max="10148" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10149" max="10149" width="0.8984375" style="1" customWidth="1"/>
+    <col min="10150" max="10150" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10151" max="10151" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10152" max="10154" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10155" max="10155" width="0.8984375" style="1" customWidth="1"/>
+    <col min="10156" max="10156" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10157" max="10157" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10158" max="10158" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10159" max="10160" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10161" max="10161" width="0.8984375" style="1" customWidth="1"/>
+    <col min="10162" max="10162" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10163" max="10163" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10164" max="10166" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10167" max="10403" width="11.3984375" style="1"/>
+    <col min="10404" max="10404" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10405" max="10405" width="0.8984375" style="1" customWidth="1"/>
+    <col min="10406" max="10406" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10407" max="10407" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10408" max="10410" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10411" max="10411" width="0.8984375" style="1" customWidth="1"/>
+    <col min="10412" max="10412" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10413" max="10413" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10414" max="10414" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10415" max="10416" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10417" max="10417" width="0.8984375" style="1" customWidth="1"/>
+    <col min="10418" max="10418" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10419" max="10419" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10420" max="10422" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10423" max="10659" width="11.3984375" style="1"/>
+    <col min="10660" max="10660" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10661" max="10661" width="0.8984375" style="1" customWidth="1"/>
+    <col min="10662" max="10662" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10663" max="10663" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10664" max="10666" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10667" max="10667" width="0.8984375" style="1" customWidth="1"/>
+    <col min="10668" max="10668" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10669" max="10669" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10670" max="10670" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10671" max="10672" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10673" max="10673" width="0.8984375" style="1" customWidth="1"/>
+    <col min="10674" max="10674" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10675" max="10675" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10676" max="10678" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10679" max="10915" width="11.3984375" style="1"/>
+    <col min="10916" max="10916" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10917" max="10917" width="0.8984375" style="1" customWidth="1"/>
+    <col min="10918" max="10918" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10919" max="10919" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10920" max="10922" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10923" max="10923" width="0.8984375" style="1" customWidth="1"/>
+    <col min="10924" max="10924" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10925" max="10925" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10926" max="10926" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10927" max="10928" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10929" max="10929" width="0.8984375" style="1" customWidth="1"/>
+    <col min="10930" max="10930" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10931" max="10931" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10932" max="10934" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10935" max="11171" width="11.3984375" style="1"/>
+    <col min="11172" max="11172" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11173" max="11173" width="0.8984375" style="1" customWidth="1"/>
+    <col min="11174" max="11174" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11175" max="11175" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11176" max="11178" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11179" max="11179" width="0.8984375" style="1" customWidth="1"/>
+    <col min="11180" max="11180" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11181" max="11181" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11182" max="11182" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11183" max="11184" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11185" max="11185" width="0.8984375" style="1" customWidth="1"/>
+    <col min="11186" max="11186" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11187" max="11187" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11188" max="11190" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11191" max="11427" width="11.3984375" style="1"/>
+    <col min="11428" max="11428" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11429" max="11429" width="0.8984375" style="1" customWidth="1"/>
+    <col min="11430" max="11430" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11431" max="11431" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11432" max="11434" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11435" max="11435" width="0.8984375" style="1" customWidth="1"/>
+    <col min="11436" max="11436" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11437" max="11437" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11438" max="11438" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11439" max="11440" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11441" max="11441" width="0.8984375" style="1" customWidth="1"/>
+    <col min="11442" max="11442" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11443" max="11443" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11444" max="11446" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11447" max="11683" width="11.3984375" style="1"/>
+    <col min="11684" max="11684" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11685" max="11685" width="0.8984375" style="1" customWidth="1"/>
+    <col min="11686" max="11686" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11687" max="11687" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11688" max="11690" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11691" max="11691" width="0.8984375" style="1" customWidth="1"/>
+    <col min="11692" max="11692" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11693" max="11693" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11694" max="11694" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11695" max="11696" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11697" max="11697" width="0.8984375" style="1" customWidth="1"/>
+    <col min="11698" max="11698" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11699" max="11699" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11700" max="11702" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11703" max="11939" width="11.3984375" style="1"/>
+    <col min="11940" max="11940" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11941" max="11941" width="0.8984375" style="1" customWidth="1"/>
+    <col min="11942" max="11942" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11943" max="11943" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11944" max="11946" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11947" max="11947" width="0.8984375" style="1" customWidth="1"/>
+    <col min="11948" max="11948" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11949" max="11949" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11950" max="11950" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11951" max="11952" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11953" max="11953" width="0.8984375" style="1" customWidth="1"/>
+    <col min="11954" max="11954" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11955" max="11955" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11956" max="11958" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11959" max="12195" width="11.3984375" style="1"/>
+    <col min="12196" max="12196" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12197" max="12197" width="0.8984375" style="1" customWidth="1"/>
+    <col min="12198" max="12198" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12199" max="12199" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12200" max="12202" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12203" max="12203" width="0.8984375" style="1" customWidth="1"/>
+    <col min="12204" max="12204" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12205" max="12205" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12206" max="12206" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12207" max="12208" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12209" max="12209" width="0.8984375" style="1" customWidth="1"/>
+    <col min="12210" max="12210" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12211" max="12211" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12212" max="12214" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12215" max="12451" width="11.3984375" style="1"/>
+    <col min="12452" max="12452" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12453" max="12453" width="0.8984375" style="1" customWidth="1"/>
+    <col min="12454" max="12454" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12455" max="12455" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12456" max="12458" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12459" max="12459" width="0.8984375" style="1" customWidth="1"/>
+    <col min="12460" max="12460" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12461" max="12461" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12462" max="12462" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12463" max="12464" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12465" max="12465" width="0.8984375" style="1" customWidth="1"/>
+    <col min="12466" max="12466" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12467" max="12467" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12468" max="12470" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12471" max="12707" width="11.3984375" style="1"/>
+    <col min="12708" max="12708" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12709" max="12709" width="0.8984375" style="1" customWidth="1"/>
+    <col min="12710" max="12710" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12711" max="12711" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12712" max="12714" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12715" max="12715" width="0.8984375" style="1" customWidth="1"/>
+    <col min="12716" max="12716" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12717" max="12717" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12718" max="12718" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12719" max="12720" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12721" max="12721" width="0.8984375" style="1" customWidth="1"/>
+    <col min="12722" max="12722" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12723" max="12723" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12724" max="12726" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12727" max="12963" width="11.3984375" style="1"/>
+    <col min="12964" max="12964" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12965" max="12965" width="0.8984375" style="1" customWidth="1"/>
+    <col min="12966" max="12966" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12967" max="12967" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12968" max="12970" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12971" max="12971" width="0.8984375" style="1" customWidth="1"/>
+    <col min="12972" max="12972" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12973" max="12973" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12974" max="12974" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12975" max="12976" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12977" max="12977" width="0.8984375" style="1" customWidth="1"/>
+    <col min="12978" max="12978" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12979" max="12979" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12980" max="12982" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12983" max="13219" width="11.3984375" style="1"/>
+    <col min="13220" max="13220" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13221" max="13221" width="0.8984375" style="1" customWidth="1"/>
+    <col min="13222" max="13222" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13223" max="13223" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13224" max="13226" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13227" max="13227" width="0.8984375" style="1" customWidth="1"/>
+    <col min="13228" max="13228" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13229" max="13229" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13230" max="13230" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13231" max="13232" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13233" max="13233" width="0.8984375" style="1" customWidth="1"/>
+    <col min="13234" max="13234" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13235" max="13235" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13236" max="13238" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13239" max="13475" width="11.3984375" style="1"/>
+    <col min="13476" max="13476" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13477" max="13477" width="0.8984375" style="1" customWidth="1"/>
+    <col min="13478" max="13478" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13479" max="13479" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13480" max="13482" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13483" max="13483" width="0.8984375" style="1" customWidth="1"/>
+    <col min="13484" max="13484" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13485" max="13485" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13486" max="13486" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13487" max="13488" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13489" max="13489" width="0.8984375" style="1" customWidth="1"/>
+    <col min="13490" max="13490" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13491" max="13491" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13492" max="13494" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13495" max="13731" width="11.3984375" style="1"/>
+    <col min="13732" max="13732" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13733" max="13733" width="0.8984375" style="1" customWidth="1"/>
+    <col min="13734" max="13734" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13735" max="13735" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13736" max="13738" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13739" max="13739" width="0.8984375" style="1" customWidth="1"/>
+    <col min="13740" max="13740" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13741" max="13741" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13742" max="13742" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13743" max="13744" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13745" max="13745" width="0.8984375" style="1" customWidth="1"/>
+    <col min="13746" max="13746" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13747" max="13747" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13748" max="13750" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13751" max="13987" width="11.3984375" style="1"/>
+    <col min="13988" max="13988" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13989" max="13989" width="0.8984375" style="1" customWidth="1"/>
+    <col min="13990" max="13990" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13991" max="13991" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13992" max="13994" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13995" max="13995" width="0.8984375" style="1" customWidth="1"/>
+    <col min="13996" max="13996" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13997" max="13997" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13998" max="13998" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13999" max="14000" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14001" max="14001" width="0.8984375" style="1" customWidth="1"/>
+    <col min="14002" max="14002" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14003" max="14003" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14004" max="14006" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14007" max="14243" width="11.3984375" style="1"/>
+    <col min="14244" max="14244" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14245" max="14245" width="0.8984375" style="1" customWidth="1"/>
+    <col min="14246" max="14246" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14247" max="14247" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14248" max="14250" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14251" max="14251" width="0.8984375" style="1" customWidth="1"/>
+    <col min="14252" max="14252" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14253" max="14253" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14254" max="14254" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14255" max="14256" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14257" max="14257" width="0.8984375" style="1" customWidth="1"/>
+    <col min="14258" max="14258" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14259" max="14259" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14260" max="14262" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14263" max="14499" width="11.3984375" style="1"/>
+    <col min="14500" max="14500" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14501" max="14501" width="0.8984375" style="1" customWidth="1"/>
+    <col min="14502" max="14502" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14503" max="14503" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14504" max="14506" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14507" max="14507" width="0.8984375" style="1" customWidth="1"/>
+    <col min="14508" max="14508" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14509" max="14509" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14510" max="14510" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14511" max="14512" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14513" max="14513" width="0.8984375" style="1" customWidth="1"/>
+    <col min="14514" max="14514" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14515" max="14515" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14516" max="14518" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14519" max="14755" width="11.3984375" style="1"/>
+    <col min="14756" max="14756" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14757" max="14757" width="0.8984375" style="1" customWidth="1"/>
+    <col min="14758" max="14758" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14759" max="14759" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14760" max="14762" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14763" max="14763" width="0.8984375" style="1" customWidth="1"/>
+    <col min="14764" max="14764" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14765" max="14765" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14766" max="14766" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14767" max="14768" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14769" max="14769" width="0.8984375" style="1" customWidth="1"/>
+    <col min="14770" max="14770" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14771" max="14771" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14772" max="14774" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14775" max="15011" width="11.3984375" style="1"/>
+    <col min="15012" max="15012" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15013" max="15013" width="0.8984375" style="1" customWidth="1"/>
+    <col min="15014" max="15014" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15015" max="15015" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15016" max="15018" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15019" max="15019" width="0.8984375" style="1" customWidth="1"/>
+    <col min="15020" max="15020" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15021" max="15021" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15022" max="15022" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15023" max="15024" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15025" max="15025" width="0.8984375" style="1" customWidth="1"/>
+    <col min="15026" max="15026" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15027" max="15027" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15028" max="15030" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15031" max="15267" width="11.3984375" style="1"/>
+    <col min="15268" max="15268" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15269" max="15269" width="0.8984375" style="1" customWidth="1"/>
+    <col min="15270" max="15270" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15271" max="15271" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15272" max="15274" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15275" max="15275" width="0.8984375" style="1" customWidth="1"/>
+    <col min="15276" max="15276" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15277" max="15277" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15278" max="15278" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15279" max="15280" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15281" max="15281" width="0.8984375" style="1" customWidth="1"/>
+    <col min="15282" max="15282" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15283" max="15283" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15284" max="15286" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15287" max="15523" width="11.3984375" style="1"/>
+    <col min="15524" max="15524" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15525" max="15525" width="0.8984375" style="1" customWidth="1"/>
+    <col min="15526" max="15526" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15527" max="15527" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15528" max="15530" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15531" max="15531" width="0.8984375" style="1" customWidth="1"/>
+    <col min="15532" max="15532" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15533" max="15533" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15534" max="15534" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15535" max="15536" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15537" max="15537" width="0.8984375" style="1" customWidth="1"/>
+    <col min="15538" max="15538" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15539" max="15539" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15540" max="15542" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15543" max="15779" width="11.3984375" style="1"/>
+    <col min="15780" max="15780" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15781" max="15781" width="0.8984375" style="1" customWidth="1"/>
+    <col min="15782" max="15782" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15783" max="15783" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15784" max="15786" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15787" max="15787" width="0.8984375" style="1" customWidth="1"/>
+    <col min="15788" max="15788" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15789" max="15789" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15790" max="15790" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15791" max="15792" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15793" max="15793" width="0.8984375" style="1" customWidth="1"/>
+    <col min="15794" max="15794" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15795" max="15795" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15796" max="15798" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15799" max="16035" width="11.3984375" style="1"/>
+    <col min="16036" max="16036" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16037" max="16037" width="0.8984375" style="1" customWidth="1"/>
+    <col min="16038" max="16038" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16039" max="16039" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16040" max="16042" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16043" max="16043" width="0.8984375" style="1" customWidth="1"/>
+    <col min="16044" max="16044" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16045" max="16045" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16046" max="16046" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16047" max="16048" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16049" max="16049" width="0.8984375" style="1" customWidth="1"/>
+    <col min="16050" max="16050" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16051" max="16051" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16052" max="16054" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16055" max="16384" width="11.3984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="13.85" x14ac:dyDescent="0.35">
       <c r="A1" s="92" t="s">
         <v>59</v>
       </c>
@@ -2628,109 +2628,109 @@
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
     </row>
-    <row r="2" spans="1:31" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:31" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" ht="14.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:31" ht="14.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
-      <c r="B3" s="104">
+      <c r="B3" s="97">
         <v>2011</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="104">
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="97">
         <v>2013</v>
       </c>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="104">
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="97">
         <v>2015</v>
       </c>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="104">
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="97">
         <v>2017</v>
       </c>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
-      <c r="U3" s="106"/>
-      <c r="V3" s="104">
+      <c r="R3" s="98"/>
+      <c r="S3" s="98"/>
+      <c r="T3" s="98"/>
+      <c r="U3" s="99"/>
+      <c r="V3" s="97">
         <v>2019</v>
       </c>
-      <c r="W3" s="105"/>
-      <c r="X3" s="105"/>
-      <c r="Y3" s="105"/>
-      <c r="Z3" s="106"/>
-      <c r="AA3" s="104">
+      <c r="W3" s="98"/>
+      <c r="X3" s="98"/>
+      <c r="Y3" s="98"/>
+      <c r="Z3" s="99"/>
+      <c r="AA3" s="97">
         <v>2021</v>
       </c>
-      <c r="AB3" s="105"/>
-      <c r="AC3" s="105"/>
-      <c r="AD3" s="105"/>
-      <c r="AE3" s="106"/>
+      <c r="AB3" s="98"/>
+      <c r="AC3" s="98"/>
+      <c r="AD3" s="98"/>
+      <c r="AE3" s="99"/>
     </row>
-    <row r="4" spans="1:31" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" ht="13.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="101" t="s">
+      <c r="D4" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="102"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="97" t="s">
+      <c r="E4" s="101"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="99" t="s">
+      <c r="H4" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="101" t="s">
+      <c r="I4" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="102"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="97" t="s">
+      <c r="J4" s="101"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="99" t="s">
+      <c r="M4" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="101" t="s">
+      <c r="N4" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="102"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="97" t="s">
+      <c r="O4" s="101"/>
+      <c r="P4" s="102"/>
+      <c r="Q4" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="99" t="s">
+      <c r="R4" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="S4" s="101" t="s">
+      <c r="S4" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="T4" s="102"/>
-      <c r="U4" s="103"/>
-      <c r="V4" s="97" t="s">
+      <c r="T4" s="101"/>
+      <c r="U4" s="102"/>
+      <c r="V4" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="W4" s="99" t="s">
+      <c r="W4" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="X4" s="101" t="s">
+      <c r="X4" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="Y4" s="102"/>
-      <c r="Z4" s="103"/>
+      <c r="Y4" s="101"/>
+      <c r="Z4" s="102"/>
       <c r="AA4" s="107" t="s">
         <v>3</v>
       </c>
@@ -2743,12 +2743,12 @@
       <c r="AD4" s="112"/>
       <c r="AE4" s="113"/>
     </row>
-    <row r="5" spans="1:31" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" ht="13.85" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="100"/>
+      <c r="C5" s="106"/>
       <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
@@ -2758,10 +2758,10 @@
       <c r="F5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="98" t="s">
+      <c r="G5" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="100"/>
+      <c r="H5" s="106"/>
       <c r="I5" s="5" t="s">
         <v>6</v>
       </c>
@@ -2771,10 +2771,10 @@
       <c r="K5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="98" t="s">
+      <c r="L5" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="100"/>
+      <c r="M5" s="106"/>
       <c r="N5" s="5" t="s">
         <v>6</v>
       </c>
@@ -2784,10 +2784,10 @@
       <c r="P5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="98" t="s">
+      <c r="Q5" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="R5" s="100"/>
+      <c r="R5" s="106"/>
       <c r="S5" s="5" t="s">
         <v>6</v>
       </c>
@@ -2797,10 +2797,10 @@
       <c r="U5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="V5" s="98" t="s">
+      <c r="V5" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="W5" s="100"/>
+      <c r="W5" s="106"/>
       <c r="X5" s="5" t="s">
         <v>6</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="14.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="13.3" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="93" t="s">
         <v>12</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>0.67556329624648115</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>14</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>0.79412330133435594</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>15</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>0.8583962600825803</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>17</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>18</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>19</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>21</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>0.79353816981879444</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>22</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>23</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>0.10702552063817111</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>24</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>25</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>0.90252196181586797</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
@@ -3957,7 +3957,7 @@
       <c r="AD18" s="32"/>
       <c r="AE18" s="33"/>
     </row>
-    <row r="19" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>27</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>0.61773015926007979</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>28</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>29</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>30</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>0.82424886835348909</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>31</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>0.56504197883234208</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>32</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>33</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>34</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>35</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>9.4783576162313296E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>36</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>37</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>39</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>40</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>0.94059986616843805</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>41</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>0.6265627066413938</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>42</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>0.69423873945377523</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>43</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>0.83415684280829561</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>44</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>0.60100089744422913</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>45</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>46</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>47</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>0.88663914073809968</v>
       </c>
     </row>
-    <row r="39" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>48</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>0.71890881712144861</v>
       </c>
     </row>
-    <row r="40" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>49</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>0.80490975773785378</v>
       </c>
     </row>
-    <row r="41" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>50</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>51</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>0.68102291027231177</v>
       </c>
     </row>
-    <row r="43" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>52</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>53</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>54</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>55</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>0.85268166317588223</v>
       </c>
     </row>
-    <row r="47" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>56</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>0.35029816265253844</v>
       </c>
     </row>
-    <row r="48" spans="1:31" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:31" ht="13.3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="94" t="s">
         <v>57</v>
       </c>
@@ -6527,34 +6527,36 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" ht="15.55" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="1:1" ht="13.85" x14ac:dyDescent="0.35">
       <c r="A50" s="95" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" ht="13.85" x14ac:dyDescent="0.35">
       <c r="A51" s="95" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" ht="13.85" x14ac:dyDescent="0.35">
       <c r="A52" s="96" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" ht="13.85" x14ac:dyDescent="0.35">
       <c r="A53" s="96" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="V3:Z3"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="AA3:AE3"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AC4:AE4"/>
     <mergeCell ref="S4:U4"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -6567,13 +6569,11 @@
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="R4:R5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="V3:Z3"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
